--- a/src/main/java/framework/suite/smoke/HyperTech_Automation_Test_Case.xlsx
+++ b/src/main/java/framework/suite/smoke/HyperTech_Automation_Test_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazmul.islam/Desktop/Personal/HyperTech/ht-selenium-framework/src/main/java/framework/suite/smoke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78801A8-1984-5845-942B-CD580E26E740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC04D76F-C30D-BC4F-80DF-13614CDB44D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>terms</t>
-  </si>
-  <si>
     <t>Uncheck phone &amp; email checkbox</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>/api/process_contact.php</t>
+  </si>
+  <si>
+    <t>terms</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -655,7 +655,9 @@
   </sheetPr>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1184,8 +1186,8 @@
       <c r="D14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>55</v>
+      <c r="E14" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -1214,16 +1216,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>58</v>
+      <c r="E15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1252,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>43</v>
@@ -1261,7 +1263,7 @@
         <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1290,19 +1292,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1330,15 +1332,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
